--- a/xgboost/gbdt结果.xlsx
+++ b/xgboost/gbdt结果.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjiyun/Desktop/lab/shiyan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjiyun/Desktop/中大/lab/药物靶标/drugProtein/xgboost/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D46299F0-9315-5E4E-B312-F8B6D3045F43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="880" windowWidth="24920" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="3060" yWindow="880" windowWidth="24920" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>迭代次数</t>
     <rPh sb="0" eb="1">
@@ -197,6 +198,13 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ji l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等频、等宽</t>
+    <rPh sb="0" eb="101">
+      <t>fen tong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,8 +212,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,13 +345,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -358,38 +393,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,6 +408,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -685,348 +696,351 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="66" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="19">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.95814500000000002</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.86931899999999995</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.79875700000000005</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="5">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="A4" s="16"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4">
         <v>1000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.990645</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.89430399999999999</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.82288399999999995</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="19">
+      <c r="A5" s="16"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="4">
         <v>10000</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>0.83238900000000005</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="18" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="19">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.97186799999999995</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.88647200000000004</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.81337999999999999</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="4">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="19">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.99581600000000003</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.91198599999999996</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.842808</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="50" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.99999700000000002</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.99890299999999999</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="18" t="s">
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>100</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.96980999999999995</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.86893200000000004</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.84218599999999999</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="4">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="19">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="3">
         <v>1000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.99574300000000004</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.89803599999999995</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.86295999999999995</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="4">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="19">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="3">
         <v>10000</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <v>0.867564</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15" t="s">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="19">
+      <c r="A12" s="16"/>
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>100</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.976464</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.88697700000000002</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.85280900000000004</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="5">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="19">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="4">
         <v>1000</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.99778199999999995</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.91313699999999998</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.87252099999999999</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="19">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>100</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.78938600000000003</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.65898900000000005</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.66849999999999998</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="4">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="19">
+      <c r="A15" s="19"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.80827599999999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.65401100000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.65912800000000005</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="4">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="19">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="3">
         <v>10000</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.82067699999999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.64598900000000004</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.64873700000000001</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="15" t="s">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="19">
+      <c r="A17" s="19"/>
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>100</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.98371399999999998</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.97916099999999995</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.91686999999999996</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="5">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="19">
+      <c r="A18" s="19"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="4">
         <v>1000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.987012</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.98179099999999997</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.91870399999999997</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="5">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="49" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4">
         <v>10000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.99041299999999999</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>0.98252399999999995</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.92318699999999998</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="24">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
